--- a/docs/odh/shr-core-Procedure-model.xlsx
+++ b/docs/odh/shr-core-Procedure-model.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$53</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="205">
   <si>
     <t>Path</t>
   </si>
@@ -134,7 +134,7 @@
     <t>*</t>
   </si>
   <si>
-    <t>A procedure that has been performed.</t>
+    <t>An action that is or was performed on or for a patient. This can be a physical intervention like an operation, or less invasive like long term services, counseling, or hypnotherapy.</t>
   </si>
   <si>
     <t>shr-core-Procedure-model.metadata</t>
@@ -143,7 +143,7 @@
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Metadata-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Metadata-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -160,10 +160,6 @@
     <t>A human language, spoken or written.</t>
   </si>
   <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0023008
-</t>
-  </si>
-  <si>
     <t>shr-core-Procedure-model.implicitRules</t>
   </si>
   <si>
@@ -177,7 +173,7 @@
     <t>shr-core-Procedure-model.narrative</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Narrative-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Narrative-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -190,34 +186,44 @@
     <t>A state that relates to the workflow or interpretation of this resource. Certain status values can modify the meaning of the resource, for example, entered-in-error. When a boolean value is used, Status of true indicates the record is active, false means inactive.</t>
   </si>
   <si>
+    <t>shr-core-Procedure-model.statusReason</t>
+  </si>
+  <si>
+    <t>Captures the reason for the current state of the procedure.</t>
+  </si>
+  <si>
     <t>shr-core-Procedure-model.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Identifier-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Identifier-model {[]} {[]}
 </t>
   </si>
   <si>
     <t>Business identifier or external id for this resource.</t>
   </si>
   <si>
-    <t>shr-core-Procedure-model.patientSubjectOfRecord</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient-model]]}
+    <t>shr-core-Procedure-model.subjectOfRecord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Patient-model]]}
 </t>
   </si>
   <si>
-    <t>The SubjectOfRecord when restricted to being a Patient resource.</t>
+    <t>The subject of a clinical statement, often called the Patient or the Subject. The SubjectOfRecord typically identifies the clinical record in which this statement is contained. If the statement should be in John Doe's patient record, then John Doe is the subject of record. When there is no patient, the SubjectOfRecord can also be a location, group, or other entity that statement pertains to. For example, observations concerning a hospital ward would have a Location as the SubjectOfRecord.</t>
+  </si>
+  <si>
+    <t>The subject of a clinical statement, often called the Patient or the Subject. The SubjectOfRecord typically identifies the clinical record in which this statement is contained. If the statement should be in John Doe's patient record, then John Doe is the subject of record. When there is no patient, the SubjectOfRecord can also be a location, group, or other entity that statement pertains to. For example, observations concerning a hospital ward would have a Location as the SubjectOfRecord.
+Note that the word 'Subject' is used here in the sense of a person or entity subjected to observations or actions, not subject as in a conceptual topic, like heart disease.</t>
   </si>
   <si>
     <t xml:space="preserve">http://ncimeta.nci.nih.gov#C1299487
 </t>
   </si>
   <si>
-    <t>shr-core-Procedure-model.careContext[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Encounter-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-EpisodeOfCare-model]]}
+    <t>shr-core-Procedure-model.careContext</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Encounter-model]]}
 </t>
   </si>
   <si>
@@ -241,35 +247,160 @@
     <t>shr-core-Procedure-model.reasonCode</t>
   </si>
   <si>
-    <t>The justification, as a code.</t>
-  </si>
-  <si>
-    <t>The justification, as a code.
-Reason is a string or CodeableConcept in DSTU2 but in later versions only a CodeableConcept, so we are not going to support a string.</t>
+    <t>The explanation or justification for the current item or action, as a code.</t>
+  </si>
+  <si>
+    <t>The explanation or justification for the current item or action, as a code.
+Reason is a string or CodeableConcept in DSTU2 but in later versions only a CodeableConcept.</t>
   </si>
   <si>
     <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0566251
 </t>
   </si>
   <si>
-    <t>shr-core-Procedure-model.reasonReference[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Condition-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Observation-model]]}
+    <t>shr-core-Procedure-model.procedureReasonReference[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Condition-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Observation-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Procedure-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-DiagnosticReport-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-DocumentReference-model]]}
 </t>
   </si>
   <si>
-    <t>The justification, as reference to a condition or observation.</t>
+    <t>The justification that the procedure was performed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>shr-core-Procedure-model.procedureReasonReferenceShr-core-Condition-model</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Condition-model]]}
+</t>
+  </si>
+  <si>
+    <t>A condition that is or may be present in a subject. 'Condition' is interpreted broadly and could be a disorder, abnormality, problem, injury, complaint, functionality, illness, disease, ailment, sickness, affliction, upset, difficulty, disorder, symptom, worry, or trouble.</t>
+  </si>
+  <si>
+    <t>A condition that is or may be present in a subject. 'Condition' is interpreted broadly and could be a disorder, abnormality, problem, injury, complaint, functionality, illness, disease, ailment, sickness, affliction, upset, difficulty, disorder, symptom, worry, or trouble.
+The Observation-based class, ConditionAbsent, should be used to describe conditions that are not present or negative findings.
+SHR Condition uses the SHR BodyLocation structure that includes not only a code, but optional laterality, direction, clock direction, and distance. If included, the distance is measured from the location specified by the code, laterality, and direction.</t>
+  </si>
+  <si>
+    <t>shr-core-Procedure-model.procedureReasonReferenceShr-core-Observation-model</t>
+  </si>
+  <si>
+    <t>Observation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Observation-model]]}
+</t>
+  </si>
+  <si>
+    <t>Represents the result of evaluations (measurements, tests, or questions) that have been performed.</t>
+  </si>
+  <si>
+    <t>Represents the result of evaluations (measurements, tests, or questions) that have been performed.
+Observation has a value representing the result (answer), or an DataAbsentReason indicating why the value is not present. Things observed about the subject can include social and behavioral factors, subjective and objective observations, and assessments.
+For an Observation, the Code describes the aspect or property of the subject being observed or measured. The Code is the 'question code' that pairs to the 'answer' contained in the Value.</t>
+  </si>
+  <si>
+    <t>shr-core-Procedure-model.procedureReasonReferenceShr-core-Procedure-model</t>
+  </si>
+  <si>
+    <t>Procedure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Procedure-model]]}
+</t>
+  </si>
+  <si>
+    <t>shr-core-Procedure-model.procedureReasonReferenceShr-core-DiagnosticReport-model</t>
+  </si>
+  <si>
+    <t>DiagnosticReport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-DiagnosticReport-model]]}
+</t>
+  </si>
+  <si>
+    <t>shr-core-Procedure-model.procedureReasonReferenceShr-core-DocumentReference-model</t>
+  </si>
+  <si>
+    <t>DocumentReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-DocumentReference-model]]}
+</t>
+  </si>
+  <si>
+    <t>A reference to a document, used to describe a document that is made available to a healthcare system. A document is some sequence of bytes that is identifiable, establishes its own context (e.g., what subject, author, etc. can be displayed to the user), and has defined update management. The DocumentReference resource can be used with any document format that has a recognized mime type and that conforms to this definition.</t>
+  </si>
+  <si>
+    <t>shr-core-Procedure-model.procedureBasedOn[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-ProcedureRequest-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-ReferralRequest-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-ServiceRequest-model]]}
+</t>
+  </si>
+  <si>
+    <t>A request for this procedure.</t>
+  </si>
+  <si>
+    <t>shr-core-Procedure-model.procedureBasedOnShr-core-ProcedureRequest-model</t>
+  </si>
+  <si>
+    <t>ProcedureRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-ProcedureRequest-model]]}
+</t>
+  </si>
+  <si>
+    <t>A request for a procedure to be performed. May be a proposal or an order.</t>
+  </si>
+  <si>
+    <t>shr-core-Procedure-model.procedureBasedOnShr-core-ReferralRequest-model</t>
+  </si>
+  <si>
+    <t>ReferralRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-ReferralRequest-model]]}
+</t>
+  </si>
+  <si>
+    <t>Used to record and send details about a request for referral service or transfer of a patient to the care of another provider or provider organization.</t>
+  </si>
+  <si>
+    <t>shr-core-Procedure-model.procedureBasedOnShr-core-ServiceRequest-model</t>
+  </si>
+  <si>
+    <t>ServiceRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-ServiceRequest-model]]}
+</t>
+  </si>
+  <si>
+    <t>A record of a request for service such as diagnostic investigations, treatments, or operations to be performed.</t>
   </si>
   <si>
     <t>shr-core-Procedure-model.occurrenceTimeOrPeriod[x]</t>
   </si>
   <si>
     <t>date {[]} {[]}
-dateTime {[]} {[]}http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-TimePeriod-model {[]} {[]}</t>
-  </si>
-  <si>
-    <t>The point in time or span of time in which something happens.</t>
+dateTime {[]} {[]}http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-TimePeriod-model {[]} {[]}</t>
+  </si>
+  <si>
+    <t>The point or period of time when the event takes place. Times can be precise (dateTime) or approximate (date). If a time period is used, and the start date or dateTime is missing, the start of the period is not known. If the end date or dateTime is missing, it means that the period is ongoing.</t>
   </si>
   <si>
     <t>shr-core-Procedure-model.participation</t>
@@ -285,7 +416,7 @@
     <t>shr-core-Procedure-model.participation.procedureParticipant[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Organization-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-RelatedPerson-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Device-model]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Practitioner-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Organization-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Patient-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-RelatedPerson-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Device-model]]}
 </t>
   </si>
   <si>
@@ -304,155 +435,260 @@
     <t>http://hl7.org/fhir/ValueSet/performer-role</t>
   </si>
   <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C1553854
+    <t>shr-core-Procedure-model.participation.participationPeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-TimePeriod-model {[]} {[]}
 </t>
   </si>
   <si>
-    <t>shr-core-Procedure-model.participation.participationPeriod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-TimePeriod-model {[]} {[]}
+    <t>The point in time or span of time the participant is involved.</t>
+  </si>
+  <si>
+    <t>shr-core-Procedure-model.participation.onBehalfOf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Organization-model]]}
 </t>
   </si>
   <si>
-    <t>The point in time or span of time the participant is involved.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C1948053
+    <t>The party represented by the actual participant.</t>
+  </si>
+  <si>
+    <t>shr-core-Procedure-model.method</t>
+  </si>
+  <si>
+    <t>The technique used to carry out an action, for example, the specific imaging technical or assessment vehicle.</t>
+  </si>
+  <si>
+    <t>shr-core-Procedure-model.procedurePartOf[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Procedure-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-MedicationAdministration-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Observation-model]]}
 </t>
   </si>
   <si>
-    <t>shr-core-Procedure-model.participation.onBehalfOf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Organization-model {[]} {[]}
+    <t>A larger event of which this particular procedure is a component or step.</t>
+  </si>
+  <si>
+    <t>shr-core-Procedure-model.procedurePartOfShr-core-Procedure-model</t>
+  </si>
+  <si>
+    <t>shr-core-Procedure-model.procedurePartOfShr-core-MedicationAdministration-model</t>
+  </si>
+  <si>
+    <t>MedicationAdministration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-MedicationAdministration-model]]}
 </t>
   </si>
   <si>
-    <t>The party represented by the actual participant.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C1561598
+    <t>A record of the use of a medication. If the medication is given as part of a course of treatment, the PartOf attribute should refer to the CourseOfTreatment.</t>
+  </si>
+  <si>
+    <t>A record of the use of a medication. If the medication is given as part of a course of treatment, the PartOf attribute should refer to the CourseOfTreatment.
+Although FHIR MedicationAdministration supports date of administration, information source, performer, it lacks common provenance elements, statement creation date, author, and recorder. These are supported as optional extensions.
+FHIR DSTU2 lacks a category attribute, which is provided as an extension in that version.
+SHR does not allow the 'not given' attributes from DSTU2 and STU3, since they are dropped in R4. The status element is used to document medications not given.</t>
+  </si>
+  <si>
+    <t>shr-core-Procedure-model.procedurePartOfShr-core-Observation-model</t>
+  </si>
+  <si>
+    <t>shr-core-Procedure-model.category</t>
+  </si>
+  <si>
+    <t>The general type or class of this item.</t>
+  </si>
+  <si>
+    <t>shr-core-Procedure-model.code</t>
+  </si>
+  <si>
+    <t>The main type identifier for a lab, procedure, condition, etc., usually drawn from a controlled vocabulary.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-procedure-code</t>
+  </si>
+  <si>
+    <t>shr-core-Procedure-model.personAuthor[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Patient-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Practitioner-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-RelatedPerson-model]]}
 </t>
   </si>
   <si>
-    <t>shr-core-Procedure-model.method</t>
-  </si>
-  <si>
-    <t>The technique used to carry out an action, for example, the specific imaging technical or assessment vehicle.</t>
-  </si>
-  <si>
-    <t>shr-core-Procedure-model.relatedRequest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ProcedureRequest-model]]}
+    <t>A human author, patient, practitioner, or related person, as opposed to an organization or device.</t>
+  </si>
+  <si>
+    <t>shr-core-Procedure-model.personInformationSource[x]</t>
+  </si>
+  <si>
+    <t>The person who provided the information, not necessarily the patient.</t>
+  </si>
+  <si>
+    <t>shr-core-Procedure-model.location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Location-model]]}
 </t>
   </si>
   <si>
-    <t>The proposal, order, or plan that is partly or wholly fulfilled by the performance of this act.</t>
-  </si>
-  <si>
-    <t>shr-core-Procedure-model.code</t>
-  </si>
-  <si>
-    <t>The main type identifier for a lab, procedure, condition, etc., usually drawn from a controlled vocabulary.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-procedure-code</t>
+    <t>Services and space and equipment provided for a particular purpose; a building or place that provides a particular service or is used for a particular industry. Could be a clinical site, community site, or a mobile facility.</t>
   </si>
   <si>
     <t>shr-core-Procedure-model.bodyLocation</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-BodyLocation-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-BodyLocation-model {[]} {[]}
 </t>
   </si>
   <si>
-    <t>A location or structure in the body, including tissues, regions, cavities, and spaces; for example, right elbow, or left ventricle of the heart.</t>
-  </si>
-  <si>
-    <t>A location or structure in the body, including tissues, regions, cavities, and spaces; for example, right elbow, or left ventricle of the heart.
-The BodyLocation includes code and optional qualifiers of anatomical side or direction. The body location can also be determined from one or more body landmarks.
-If the code for the body location includes laterality and/or anatomical direction, the corresponding attributes might be unnecessary.
-Note that BodyLocation is a data type, a reusable structure, not a stand-alone entity. The concept is similar to how an address structure can apply to a person, location, or organization. This contrasts with FHIR's stand-alone BodySite (aka BodyStructure in r4) which 'is not ... intended for describing the type of anatomical location but rather a specific body site on a specific patient' (FHIR 3.5).</t>
-  </si>
-  <si>
-    <t>shr-core-Procedure-model.partOf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Procedure-model]]}
+    <t>A location or structure in the body, including tissues, regions, cavities, and spaces; for example, right elbow, or left ventricle of the heart. Body location is a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.</t>
+  </si>
+  <si>
+    <t>A location or structure in the body, including tissues, regions, cavities, and spaces; for example, right elbow, or left ventricle of the heart. Body location is a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
++ Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
++ Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
++ Relation to landmark: The location relative to a landmark is specified by:
+- Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
+- Specifying the direction and distance from the landmark to the body location.
+Note that BodyLocation is a data type, a reusable structure, not a stand-alone entity. The concept is similar to how a postal address can apply to a person, location, or organization. This contrasts with FHIR's stand-alone BodySite (aka BodyStructure in r4) which 'is not ... intended for describing the type of anatomical location but rather a specific body site on a specific patient' (FHIR 3.5).</t>
+  </si>
+  <si>
+    <t>shr-core-Procedure-model.outcome</t>
+  </si>
+  <si>
+    <t>The result of an event or performance of an action or behavior, for example, an adverse reaction or procedure.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/procedure-outcome</t>
+  </si>
+  <si>
+    <t>shr-core-Procedure-model.diagnosticReport</t>
+  </si>
+  <si>
+    <t>shr-core-Procedure-model.complicationCode</t>
+  </si>
+  <si>
+    <t>Complication following the procedure, as a code.</t>
+  </si>
+  <si>
+    <t>shr-core-Procedure-model.complicationReference</t>
+  </si>
+  <si>
+    <t>Complication following the procedure, as a reference to a Condition.</t>
+  </si>
+  <si>
+    <t>shr-core-Procedure-model.followUp</t>
+  </si>
+  <si>
+    <t>Instructions for follow up.</t>
+  </si>
+  <si>
+    <t>shr-core-Procedure-model.annotation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Annotation-model {[]} {[]}
 </t>
   </si>
   <si>
-    <t>The larger entity that the asserted item is a portion of. For example, an organization part of a larger organization, or an encounter with a hospitalist might be part of a larger hospitalization encounter.</t>
-  </si>
-  <si>
-    <t>shr-core-Procedure-model.category</t>
-  </si>
-  <si>
-    <t>The type, kind, or class of this item.</t>
-  </si>
-  <si>
-    <t>shr-core-Procedure-model.annotation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Annotation-model {[]} {[]}
+    <t>An added or follow-up note, often after the fact, that contains metadata about who made the statement and when.</t>
+  </si>
+  <si>
+    <t>shr-core-Procedure-model.focalDevice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-FocalDevice-model {[]} {[]}
 </t>
   </si>
   <si>
-    <t>An added or follow-up note, often after the fact, that contains metadata about who made the statement and when.</t>
+    <t>Activity involving a device that is implanted, removed or otherwise manipulated (e.g., calibration, battery replacement, fitting a prosthesis, attaching a wound-vac, etc.) as a focal portion of the Procedure.</t>
   </si>
   <si>
     <t>shr-core-Procedure-model.treatmentIntent</t>
   </si>
   <si>
-    <t>The intended result from a given treatment.  Examples include curative, palliative, and supportive.</t>
+    <t>The purpose of a treatment.</t>
   </si>
   <si>
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/odh/shr/core/vs/TreatmentIntentVS</t>
+    <t>http://hl7.org/fhir/us/odh/ValueSet/shr-core-TreatmentIntentVS</t>
   </si>
   <si>
     <t xml:space="preserve">http://snomed.info/sct#395077000 (Treatment intent (situation))
 </t>
   </si>
   <si>
-    <t>shr-core-Procedure-model.location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Location-model]]}
+    <t>shr-core-Procedure-model.materialUsedReference[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Device-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Medication-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Substance-model]]}
 </t>
   </si>
   <si>
-    <t>Services and space and equipment provided for a particular purpose; a building or place that provides a particular service or is used for a particular industry. Could be a clinical site, community site, or a mobile facility.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C1547538
+    <t>Identifies medications, devices and any other substance used as part of the procedure.</t>
+  </si>
+  <si>
+    <t>shr-core-Procedure-model.materialUsedReferenceShr-core-Device-model</t>
+  </si>
+  <si>
+    <t>Device</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Device-model]]}
 </t>
   </si>
   <si>
-    <t>shr-core-Procedure-model.outcome</t>
-  </si>
-  <si>
-    <t>The result of performing an action or behavior, for example, an adverse reaction or new finding.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-outcome</t>
-  </si>
-  <si>
-    <t>shr-core-Procedure-model.materialUsed[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Device-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Medication-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Substance-model]]}
+    <t>A specific durable physical device used in diagnosis or treatment. The value is the coding for a type of device, for example, a CPAP machine. The same device might be used on multiple patients.</t>
+  </si>
+  <si>
+    <t>A specific durable physical device used in diagnosis or treatment. The value is the coding for a type of device, for example, a CPAP machine. The same device might be used on multiple patients.
+Device status cannot be reconciled between Argonaut and US-Core, each having different required value sets.
+Device type has extensible mappings to different value sets in Argonaut and US-Core, however both value sets have identical SNOMED content (descendants of 49062001 (Device). We adopt the US-Core value set, which is allowable because the binding is extensible.</t>
+  </si>
+  <si>
+    <t>shr-core-Procedure-model.materialUsedReferenceShr-core-Medication-model</t>
+  </si>
+  <si>
+    <t>Medication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Medication-model]]}
 </t>
   </si>
   <si>
-    <t>Items used during procedure</t>
+    <t>A type of prescription drug or over-the-counter drug that is used to prevent, treat, or relieve symptoms of a disease or abnormal condition, but excluding vaccines.</t>
+  </si>
+  <si>
+    <t>A type of prescription drug or over-the-counter drug that is used to prevent, treat, or relieve symptoms of a disease or abnormal condition, but excluding vaccines.
+In FHIR DSTU2 and STU3, Medication lacks the identifier attribute, which is included in SHR as an extension.
+DSTU2 lacks the status attribute, which is required by US-Core.
+Batch is 0..1 in FHIR R4, and accordingly is restricted here.</t>
+  </si>
+  <si>
+    <t>shr-core-Procedure-model.materialUsedReferenceShr-core-Substance-model</t>
+  </si>
+  <si>
+    <t>Substance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Substance-model]]}
+</t>
+  </si>
+  <si>
+    <t>Any matter of defined composition that has discrete existence, whose origin may be biological, mineral or chemical.</t>
+  </si>
+  <si>
+    <t>shr-core-Procedure-model.usedCode</t>
+  </si>
+  <si>
+    <t>Item used during an activity, represented as a code.</t>
   </si>
 </sst>
 </file>
@@ -601,7 +837,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ30"/>
+  <dimension ref="A1:AI53"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -610,8 +846,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="58.578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="83.203125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="24.54296875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -620,7 +856,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="232.71484375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -634,7 +870,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="56.23046875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="59.3828125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="59.734375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
@@ -1013,7 +1249,7 @@
         <v>36</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AA4" t="s" s="2">
         <v>36</v>
@@ -1045,7 +1281,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1068,13 +1304,13 @@
         <v>36</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="K5" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="L5" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1125,7 +1361,7 @@
         <v>36</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>37</v>
@@ -1142,7 +1378,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1165,13 +1401,13 @@
         <v>36</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="K6" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="L6" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1222,7 +1458,7 @@
         <v>36</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>37</v>
@@ -1239,7 +1475,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1265,10 +1501,10 @@
         <v>45</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1319,7 +1555,7 @@
         <v>36</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>41</v>
@@ -1336,7 +1572,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1347,7 +1583,7 @@
         <v>37</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>36</v>
@@ -1359,13 +1595,13 @@
         <v>36</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1416,13 +1652,13 @@
         <v>36</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>36</v>
@@ -1433,7 +1669,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1441,10 +1677,10 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>36</v>
@@ -1456,13 +1692,13 @@
         <v>36</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1498,7 +1734,7 @@
         <v>36</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>36</v>
@@ -1513,13 +1749,13 @@
         <v>36</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>36</v>
@@ -1530,7 +1766,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1538,7 +1774,7 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>41</v>
@@ -1553,13 +1789,13 @@
         <v>36</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1595,7 +1831,7 @@
         <v>36</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="AA10" t="s" s="2">
         <v>36</v>
@@ -1610,10 +1846,10 @@
         <v>36</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>41</v>
@@ -1627,7 +1863,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1650,13 +1886,13 @@
         <v>36</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>67</v>
       </c>
-      <c r="K11" t="s" s="2">
-        <v>68</v>
-      </c>
       <c r="L11" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1692,7 +1928,7 @@
         <v>36</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>36</v>
@@ -1707,7 +1943,7 @@
         <v>36</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>37</v>
@@ -1724,7 +1960,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1735,7 +1971,7 @@
         <v>37</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>36</v>
@@ -1747,13 +1983,13 @@
         <v>36</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1789,7 +2025,7 @@
         <v>36</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>36</v>
@@ -1804,13 +2040,13 @@
         <v>36</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>36</v>
@@ -1821,7 +2057,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1832,7 +2068,7 @@
         <v>37</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>36</v>
@@ -1844,13 +2080,13 @@
         <v>36</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1886,7 +2122,7 @@
         <v>36</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>36</v>
@@ -1901,13 +2137,13 @@
         <v>36</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>36</v>
@@ -1918,7 +2154,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -1926,7 +2162,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>41</v>
@@ -1941,13 +2177,13 @@
         <v>36</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="K14" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="L14" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -1986,22 +2222,20 @@
         <v>36</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="AB14" s="2"/>
       <c r="AC14" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>41</v>
@@ -2015,18 +2249,20 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="B15" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="C15" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>36</v>
@@ -2038,13 +2274,13 @@
         <v>36</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2095,13 +2331,13 @@
         <v>36</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>36</v>
@@ -2112,15 +2348,17 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="B16" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>87</v>
+      </c>
       <c r="C16" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>41</v>
@@ -2135,13 +2373,13 @@
         <v>36</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2192,7 +2430,7 @@
         <v>36</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>37</v>
@@ -2209,15 +2447,17 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="B17" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>92</v>
+      </c>
       <c r="C17" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>41</v>
@@ -2232,13 +2472,13 @@
         <v>36</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2265,14 +2505,16 @@
         <v>36</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="X17" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="Y17" t="s" s="2">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>36</v>
@@ -2287,7 +2529,7 @@
         <v>36</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>37</v>
@@ -2304,15 +2546,17 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>95</v>
+      </c>
       <c r="C18" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>41</v>
@@ -2327,13 +2571,13 @@
         <v>36</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2369,7 +2613,7 @@
         <v>36</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>36</v>
@@ -2384,7 +2628,7 @@
         <v>36</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>37</v>
@@ -2401,15 +2645,17 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="B19" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="C19" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>41</v>
@@ -2424,13 +2670,13 @@
         <v>36</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2466,7 +2712,7 @@
         <v>36</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>36</v>
@@ -2481,7 +2727,7 @@
         <v>36</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>37</v>
@@ -2498,7 +2744,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2509,7 +2755,7 @@
         <v>37</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>36</v>
@@ -2521,13 +2767,13 @@
         <v>36</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2566,25 +2812,23 @@
         <v>36</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="AB20" s="2"/>
       <c r="AC20" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>36</v>
@@ -2595,15 +2839,17 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="B21" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="C21" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>41</v>
@@ -2618,13 +2864,13 @@
         <v>36</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -2692,9 +2938,11 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="B22" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="C22" t="s" s="2">
         <v>36</v>
       </c>
@@ -2715,13 +2963,13 @@
         <v>36</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -2748,11 +2996,13 @@
         <v>36</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="X22" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="Y22" t="s" s="2">
-        <v>107</v>
+        <v>36</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>36</v>
@@ -2770,10 +3020,10 @@
         <v>36</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>41</v>
@@ -2787,18 +3037,20 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="C23" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>36</v>
@@ -2810,13 +3062,13 @@
         <v>36</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -2867,13 +3119,13 @@
         <v>36</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>36</v>
@@ -2884,7 +3136,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -2892,7 +3144,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>41</v>
@@ -2907,13 +3159,13 @@
         <v>36</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -2964,10 +3216,10 @@
         <v>36</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>41</v>
@@ -2981,7 +3233,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -2992,7 +3244,7 @@
         <v>37</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>36</v>
@@ -3004,13 +3256,13 @@
         <v>36</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3061,13 +3313,13 @@
         <v>36</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>36</v>
@@ -3078,7 +3330,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3089,7 +3341,7 @@
         <v>37</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>36</v>
@@ -3101,13 +3353,13 @@
         <v>36</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3158,13 +3410,13 @@
         <v>36</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>36</v>
@@ -3175,7 +3427,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3186,7 +3438,7 @@
         <v>37</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>36</v>
@@ -3201,10 +3453,10 @@
         <v>45</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3231,14 +3483,14 @@
         <v>36</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="X27" s="2"/>
       <c r="Y27" t="s" s="2">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>36</v>
@@ -3253,13 +3505,13 @@
         <v>36</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>36</v>
@@ -3270,7 +3522,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3293,13 +3545,13 @@
         <v>36</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3335,7 +3587,7 @@
         <v>36</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>128</v>
+        <v>36</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>36</v>
@@ -3350,7 +3602,7 @@
         <v>36</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>37</v>
@@ -3367,7 +3619,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3390,13 +3642,13 @@
         <v>36</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -3423,11 +3675,13 @@
         <v>36</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="X29" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="Y29" t="s" s="2">
-        <v>131</v>
+        <v>36</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>36</v>
@@ -3445,7 +3699,7 @@
         <v>36</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>37</v>
@@ -3462,7 +3716,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -3473,7 +3727,7 @@
         <v>37</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>36</v>
@@ -3485,13 +3739,13 @@
         <v>36</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -3542,23 +3796,2256 @@
         <v>36</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" hidden="true">
+      <c r="A31" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P31" s="2"/>
+      <c r="Q31" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R31" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB31" s="2"/>
+      <c r="AC31" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" hidden="true">
+      <c r="A32" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P32" s="2"/>
+      <c r="Q32" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R32" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S32" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" hidden="true">
+      <c r="A33" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="C33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P33" s="2"/>
+      <c r="Q33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" hidden="true">
+      <c r="A34" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="C34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P34" s="2"/>
+      <c r="Q34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" hidden="true">
+      <c r="A35" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P35" s="2"/>
+      <c r="Q35" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R35" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" hidden="true">
+      <c r="A36" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P36" s="2"/>
+      <c r="Q36" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R36" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="X36" s="2"/>
+      <c r="Y36" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" hidden="true">
+      <c r="A37" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P37" s="2"/>
+      <c r="Q37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" hidden="true">
+      <c r="A38" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R38" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" hidden="true">
+      <c r="A39" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" hidden="true">
+      <c r="A40" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F40" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="AH30" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI30" t="s" s="2">
+      <c r="G40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P40" s="2"/>
+      <c r="Q40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" hidden="true">
+      <c r="A41" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P41" s="2"/>
+      <c r="Q41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="X41" s="2"/>
+      <c r="Y41" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" hidden="true">
+      <c r="A42" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P42" s="2"/>
+      <c r="Q42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" hidden="true">
+      <c r="A43" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" hidden="true">
+      <c r="A44" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P44" s="2"/>
+      <c r="Q44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" hidden="true">
+      <c r="A45" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="Q45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" hidden="true">
+      <c r="A46" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P46" s="2"/>
+      <c r="Q46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" hidden="true">
+      <c r="A47" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P47" s="2"/>
+      <c r="Q47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" hidden="true">
+      <c r="A48" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R48" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="X48" s="2"/>
+      <c r="Y48" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" hidden="true">
+      <c r="A49" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB49" s="2"/>
+      <c r="AC49" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" hidden="true">
+      <c r="A50" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="C50" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" hidden="true">
+      <c r="A51" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="C51" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" hidden="true">
+      <c r="A52" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="C52" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI53" t="s" s="2">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AI30">
+  <autoFilter ref="A1:AI53">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -3568,7 +6055,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI29">
+  <conditionalFormatting sqref="A2:AI52">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
